--- a/Design/DataTable/Map/MapPattern.xlsx
+++ b/Design/DataTable/Map/MapPattern.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LC\Documents\GitHub\PlumTowerDefecne\Design\DataTable\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CE8A8B-541B-43A4-8105-D9A7F659F090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E71901-5077-4C67-9384-32A2FBC11380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5064" yWindow="2400" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2895,10 +2895,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-20,-8,UR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-18,-8,DL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5408,6 +5404,10 @@
   </si>
   <si>
     <t>44,3,LR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20,-8,DL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5922,8 +5922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ET12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CY1" workbookViewId="0">
-      <selection activeCell="EO14" sqref="EO14"/>
+    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
+      <selection activeCell="CG8" sqref="CG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6342,52 +6342,52 @@
         <v>131</v>
       </c>
       <c r="EA3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="EB3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="EC3" t="s">
         <v>1027</v>
       </c>
-      <c r="EC3" t="s">
+      <c r="ED3" t="s">
         <v>1028</v>
       </c>
-      <c r="ED3" t="s">
+      <c r="EE3" t="s">
         <v>1029</v>
       </c>
-      <c r="EE3" t="s">
+      <c r="EF3" t="s">
         <v>1030</v>
       </c>
-      <c r="EF3" t="s">
+      <c r="EG3" t="s">
         <v>1031</v>
       </c>
-      <c r="EG3" t="s">
+      <c r="EH3" t="s">
         <v>1032</v>
       </c>
-      <c r="EH3" t="s">
+      <c r="EI3" t="s">
         <v>1033</v>
       </c>
-      <c r="EI3" t="s">
+      <c r="EJ3" t="s">
         <v>1034</v>
       </c>
-      <c r="EJ3" t="s">
+      <c r="EK3" t="s">
         <v>1035</v>
       </c>
-      <c r="EK3" t="s">
+      <c r="EL3" t="s">
         <v>1036</v>
       </c>
-      <c r="EL3" t="s">
+      <c r="EM3" t="s">
         <v>1037</v>
       </c>
-      <c r="EM3" t="s">
+      <c r="EN3" t="s">
         <v>1038</v>
       </c>
-      <c r="EN3" t="s">
+      <c r="EO3" t="s">
         <v>1039</v>
       </c>
-      <c r="EO3" t="s">
+      <c r="EP3" t="s">
         <v>1040</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="4" spans="1:150" x14ac:dyDescent="0.4">
@@ -6620,7 +6620,7 @@
         <v>205</v>
       </c>
       <c r="BY4" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="BZ4" s="1" t="s">
         <v>207</v>
@@ -6701,7 +6701,7 @@
         <v>231</v>
       </c>
       <c r="CZ4" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="DA4" s="1" t="s">
         <v>232</v>
@@ -6791,49 +6791,49 @@
         <v>260</v>
       </c>
       <c r="ED4" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="EE4" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="EE4" s="1" t="s">
+      <c r="EF4" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="EF4" s="1" t="s">
+      <c r="EG4" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="EG4" s="1" t="s">
+      <c r="EH4" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="EH4" s="1" t="s">
+      <c r="EI4" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="EI4" s="1" t="s">
+      <c r="EJ4" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="EJ4" s="1" t="s">
+      <c r="EK4" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="EK4" s="1" t="s">
+      <c r="EL4" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="EL4" s="1" t="s">
+      <c r="EM4" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="EM4" s="1" t="s">
+      <c r="EN4" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="EN4" s="1" t="s">
+      <c r="EO4" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="EO4" s="1" t="s">
+      <c r="EP4" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="EP4" s="1" t="s">
+      <c r="EQ4" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="EQ4" s="1" t="s">
+      <c r="ER4" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="ER4" s="1" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="5" spans="1:150" x14ac:dyDescent="0.4">
@@ -7015,7 +7015,7 @@
         <v>318</v>
       </c>
       <c r="BH5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="BI5" s="1" t="s">
         <v>319</v>
@@ -7234,49 +7234,49 @@
         <v>390</v>
       </c>
       <c r="EC5" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="ED5" t="s">
         <v>1057</v>
       </c>
-      <c r="ED5" t="s">
+      <c r="EE5" t="s">
         <v>1058</v>
       </c>
-      <c r="EE5" t="s">
+      <c r="EF5" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="EF5" s="1" t="s">
+      <c r="EG5" t="s">
         <v>1060</v>
       </c>
-      <c r="EG5" t="s">
+      <c r="EH5" t="s">
         <v>1061</v>
       </c>
-      <c r="EH5" t="s">
+      <c r="EI5" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="EI5" s="1" t="s">
+      <c r="EJ5" t="s">
         <v>1063</v>
       </c>
-      <c r="EJ5" t="s">
+      <c r="EK5" t="s">
         <v>1064</v>
       </c>
-      <c r="EK5" t="s">
+      <c r="EL5" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="EL5" s="1" t="s">
+      <c r="EM5" t="s">
         <v>1066</v>
       </c>
-      <c r="EM5" t="s">
+      <c r="EN5" t="s">
         <v>1067</v>
       </c>
-      <c r="EN5" t="s">
+      <c r="EO5" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="EO5" s="1" t="s">
+      <c r="EP5" t="s">
         <v>1069</v>
       </c>
-      <c r="EP5" t="s">
+      <c r="EQ5" t="s">
         <v>1070</v>
-      </c>
-      <c r="EQ5" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="6" spans="1:150" x14ac:dyDescent="0.4">
@@ -7302,7 +7302,7 @@
         <v>395</v>
       </c>
       <c r="H6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I6" t="s">
         <v>396</v>
@@ -7413,10 +7413,10 @@
         <v>431</v>
       </c>
       <c r="AS6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AT6" t="s">
         <v>1017</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>1018</v>
       </c>
       <c r="AU6" t="s">
         <v>432</v>
@@ -7545,7 +7545,7 @@
         <v>473</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>474</v>
@@ -7680,49 +7680,49 @@
         <v>517</v>
       </c>
       <c r="ED6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="EE6" t="s">
         <v>1072</v>
       </c>
-      <c r="EE6" t="s">
+      <c r="EF6" t="s">
         <v>1073</v>
       </c>
-      <c r="EF6" t="s">
+      <c r="EG6" t="s">
         <v>1074</v>
       </c>
-      <c r="EG6" t="s">
+      <c r="EH6" t="s">
         <v>1075</v>
       </c>
-      <c r="EH6" t="s">
+      <c r="EI6" t="s">
         <v>1076</v>
       </c>
-      <c r="EI6" t="s">
+      <c r="EJ6" t="s">
         <v>1077</v>
       </c>
-      <c r="EJ6" t="s">
+      <c r="EK6" t="s">
         <v>1078</v>
       </c>
-      <c r="EK6" t="s">
+      <c r="EL6" t="s">
         <v>1079</v>
       </c>
-      <c r="EL6" t="s">
+      <c r="EM6" t="s">
         <v>1080</v>
       </c>
-      <c r="EM6" t="s">
+      <c r="EN6" t="s">
         <v>1081</v>
       </c>
-      <c r="EN6" t="s">
+      <c r="EO6" t="s">
         <v>1082</v>
       </c>
-      <c r="EO6" t="s">
+      <c r="EP6" t="s">
         <v>1083</v>
       </c>
-      <c r="EP6" t="s">
+      <c r="EQ6" t="s">
         <v>1084</v>
       </c>
-      <c r="EQ6" t="s">
+      <c r="ER6" t="s">
         <v>1085</v>
-      </c>
-      <c r="ER6" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="7" spans="1:150" x14ac:dyDescent="0.4">
@@ -7766,7 +7766,7 @@
         <v>527</v>
       </c>
       <c r="N7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O7" t="s">
         <v>528</v>
@@ -7844,7 +7844,7 @@
         <v>552</v>
       </c>
       <c r="AN7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AO7" t="s">
         <v>554</v>
@@ -7874,7 +7874,7 @@
         <v>561</v>
       </c>
       <c r="AX7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AY7" t="s">
         <v>562</v>
@@ -8129,49 +8129,49 @@
         <v>645</v>
       </c>
       <c r="EE7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="EF7" t="s">
         <v>1087</v>
       </c>
-      <c r="EF7" t="s">
+      <c r="EG7" t="s">
         <v>1088</v>
       </c>
-      <c r="EG7" t="s">
+      <c r="EH7" t="s">
         <v>1089</v>
       </c>
-      <c r="EH7" t="s">
+      <c r="EI7" t="s">
         <v>1090</v>
       </c>
-      <c r="EI7" t="s">
+      <c r="EJ7" t="s">
         <v>1091</v>
       </c>
-      <c r="EJ7" t="s">
+      <c r="EK7" t="s">
         <v>1092</v>
       </c>
-      <c r="EK7" t="s">
+      <c r="EL7" t="s">
         <v>1093</v>
       </c>
-      <c r="EL7" t="s">
+      <c r="EM7" t="s">
         <v>1094</v>
       </c>
-      <c r="EM7" t="s">
+      <c r="EN7" t="s">
         <v>1095</v>
       </c>
-      <c r="EN7" t="s">
+      <c r="EO7" t="s">
         <v>1096</v>
       </c>
-      <c r="EO7" t="s">
+      <c r="EP7" t="s">
         <v>1097</v>
       </c>
-      <c r="EP7" t="s">
+      <c r="EQ7" t="s">
         <v>1098</v>
       </c>
-      <c r="EQ7" t="s">
+      <c r="ER7" t="s">
         <v>1099</v>
       </c>
-      <c r="ER7" t="s">
+      <c r="ES7" t="s">
         <v>1100</v>
-      </c>
-      <c r="ES7" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="8" spans="1:150" x14ac:dyDescent="0.4">
@@ -8428,163 +8428,163 @@
         <v>716</v>
       </c>
       <c r="CG8" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="CH8" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="CH8" s="3" t="s">
+      <c r="CI8" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="CI8" s="3" t="s">
+      <c r="CJ8" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="CJ8" s="3" t="s">
+      <c r="CK8" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="CK8" s="3" t="s">
+      <c r="CL8" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="CL8" s="3" t="s">
+      <c r="CM8" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="CM8" s="3" t="s">
+      <c r="CN8" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="CN8" s="3" t="s">
+      <c r="CO8" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="CO8" s="3" t="s">
+      <c r="CP8" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="CP8" s="3" t="s">
+      <c r="CQ8" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="CQ8" s="3" t="s">
+      <c r="CR8" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="CR8" s="3" t="s">
+      <c r="CS8" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="CS8" s="3" t="s">
+      <c r="CT8" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="CT8" s="3" t="s">
+      <c r="CU8" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="CU8" s="3" t="s">
+      <c r="CV8" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="CV8" s="3" t="s">
+      <c r="CW8" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="CW8" s="3" t="s">
+      <c r="CX8" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="CX8" s="3" t="s">
+      <c r="CY8" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="CY8" s="3" t="s">
+      <c r="CZ8" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="CZ8" s="3" t="s">
+      <c r="DA8" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="DA8" s="3" t="s">
+      <c r="DB8" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="DB8" s="3" t="s">
+      <c r="DC8" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="DC8" s="3" t="s">
+      <c r="DD8" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="DD8" s="3" t="s">
+      <c r="DE8" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="DE8" s="3" t="s">
+      <c r="DF8" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="DF8" s="3" t="s">
+      <c r="DG8" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="DG8" s="3" t="s">
+      <c r="DH8" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="DH8" s="3" t="s">
+      <c r="DI8" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="DI8" s="3" t="s">
+      <c r="DJ8" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="DJ8" s="3" t="s">
+      <c r="DK8" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="DK8" s="3" t="s">
+      <c r="DL8" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="DL8" s="3" t="s">
+      <c r="DM8" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="DM8" s="3" t="s">
+      <c r="DN8" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="DN8" s="3" t="s">
+      <c r="DO8" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="DO8" s="3" t="s">
+      <c r="DP8" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="DP8" s="3" t="s">
+      <c r="DQ8" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="DQ8" s="3" t="s">
+      <c r="DR8" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="DR8" s="3" t="s">
-        <v>754</v>
-      </c>
       <c r="DS8" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="DT8" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="DT8" s="3" t="s">
+      <c r="DU8" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="DU8" s="3" t="s">
+      <c r="DV8" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="DV8" s="3" t="s">
+      <c r="DW8" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="DW8" s="3" t="s">
+      <c r="DX8" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="DX8" s="3" t="s">
+      <c r="DY8" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="DY8" s="3" t="s">
+      <c r="DZ8" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="DZ8" s="3" t="s">
+      <c r="EA8" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="EA8" s="3" t="s">
+      <c r="EB8" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="EB8" s="3" t="s">
+      <c r="EC8" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="EC8" s="3" t="s">
+      <c r="ED8" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="ED8" s="3" t="s">
+      <c r="EE8" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="EE8" s="3" t="s">
+      <c r="EF8" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="EF8" s="3" t="s">
+      <c r="EG8" s="3" t="s">
         <v>1115</v>
-      </c>
-      <c r="EG8" s="3" t="s">
-        <v>1116</v>
       </c>
       <c r="EH8" s="3"/>
       <c r="EI8" s="3"/>
@@ -8611,10 +8611,10 @@
         <v>262</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>756</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>520</v>
@@ -8623,430 +8623,430 @@
         <v>521</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AF9" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="AF9" s="3" t="s">
+      <c r="AG9" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="AG9" s="3" t="s">
+      <c r="AH9" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="AH9" s="3" t="s">
+      <c r="AI9" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="AI9" s="3" t="s">
+      <c r="AJ9" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="AJ9" s="3" t="s">
+      <c r="AK9" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="AK9" s="3" t="s">
+      <c r="AL9" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="AL9" s="3" t="s">
+      <c r="AM9" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="AM9" s="3" t="s">
+      <c r="AN9" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="AN9" s="3" t="s">
+      <c r="AO9" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="AO9" s="3" t="s">
+      <c r="AP9" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="AP9" s="3" t="s">
+      <c r="AQ9" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="AQ9" s="3" t="s">
+      <c r="AR9" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="AR9" s="3" t="s">
+      <c r="AS9" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="AS9" s="3" t="s">
+      <c r="AT9" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="AT9" s="3" t="s">
+      <c r="AU9" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="AU9" s="3" t="s">
+      <c r="AV9" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="AV9" s="3" t="s">
+      <c r="AW9" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="AW9" s="3" t="s">
+      <c r="AX9" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="AX9" s="3" t="s">
+      <c r="AY9" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="AY9" s="3" t="s">
+      <c r="AZ9" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="AZ9" s="3" t="s">
+      <c r="BA9" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="BA9" s="3" t="s">
+      <c r="BB9" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="BB9" s="3" t="s">
+      <c r="BC9" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="BC9" s="3" t="s">
+      <c r="BD9" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="BD9" s="3" t="s">
+      <c r="BE9" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="BE9" s="3" t="s">
+      <c r="BF9" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="BF9" s="3" t="s">
+      <c r="BG9" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="BG9" s="3" t="s">
+      <c r="BH9" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="BH9" s="3" t="s">
+      <c r="BI9" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="BI9" s="3" t="s">
+      <c r="BJ9" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="BJ9" s="3" t="s">
+      <c r="BK9" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="BK9" s="3" t="s">
+      <c r="BL9" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="BL9" s="3" t="s">
+      <c r="BM9" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="BM9" s="3" t="s">
+      <c r="BN9" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="BN9" s="3" t="s">
+      <c r="BO9" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="BO9" s="3" t="s">
+      <c r="BP9" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="BP9" s="3" t="s">
+      <c r="BQ9" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="BQ9" s="3" t="s">
+      <c r="BR9" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="BR9" s="3" t="s">
+      <c r="BS9" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="BS9" s="3" t="s">
+      <c r="BT9" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="BT9" s="3" t="s">
+      <c r="BU9" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="BU9" s="3" t="s">
+      <c r="BV9" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="BV9" s="3" t="s">
+      <c r="BW9" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="BW9" s="3" t="s">
+      <c r="BX9" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="BX9" s="3" t="s">
+      <c r="BY9" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="BY9" s="3" t="s">
+      <c r="BZ9" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="BZ9" s="3" t="s">
+      <c r="CA9" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="CA9" s="3" t="s">
+      <c r="CB9" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="CB9" s="3" t="s">
+      <c r="CC9" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="CC9" s="3" t="s">
+      <c r="CD9" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="CD9" s="3" t="s">
+      <c r="CE9" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="CE9" s="3" t="s">
+      <c r="CF9" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="CF9" s="3" t="s">
+      <c r="CG9" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="CG9" s="3" t="s">
+      <c r="CH9" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="CH9" s="3" t="s">
+      <c r="CI9" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="CI9" s="3" t="s">
+      <c r="CJ9" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="CJ9" s="3" t="s">
+      <c r="CK9" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="CK9" s="3" t="s">
+      <c r="CL9" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="CL9" s="3" t="s">
+      <c r="CM9" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="CM9" s="3" t="s">
+      <c r="CN9" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="CN9" s="3" t="s">
+      <c r="CO9" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="CO9" s="3" t="s">
+      <c r="CP9" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="CP9" s="3" t="s">
+      <c r="CQ9" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="CQ9" s="3" t="s">
+      <c r="CR9" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="CR9" s="3" t="s">
+      <c r="CS9" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="CS9" s="3" t="s">
+      <c r="CT9" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="CT9" s="3" t="s">
+      <c r="CU9" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="CU9" s="3" t="s">
+      <c r="CV9" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="CV9" s="3" t="s">
+      <c r="CW9" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="CW9" s="3" t="s">
+      <c r="CX9" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="CX9" s="3" t="s">
+      <c r="CY9" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="CY9" s="3" t="s">
+      <c r="CZ9" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="CZ9" s="3" t="s">
+      <c r="DA9" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="DA9" s="3" t="s">
+      <c r="DB9" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="DB9" s="3" t="s">
+      <c r="DC9" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="DC9" s="3" t="s">
+      <c r="DD9" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="DD9" s="3" t="s">
+      <c r="DE9" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="DE9" s="3" t="s">
+      <c r="DF9" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="DF9" s="3" t="s">
+      <c r="DG9" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="DG9" s="3" t="s">
+      <c r="DH9" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="DH9" s="3" t="s">
+      <c r="DI9" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="DI9" s="3" t="s">
+      <c r="DJ9" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="DJ9" s="3" t="s">
+      <c r="DK9" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="DK9" s="3" t="s">
+      <c r="DL9" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="DL9" s="3" t="s">
+      <c r="DM9" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="DM9" s="3" t="s">
+      <c r="DN9" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="DN9" s="3" t="s">
+      <c r="DO9" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="DO9" s="3" t="s">
+      <c r="DP9" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="DP9" s="3" t="s">
+      <c r="DQ9" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="DQ9" s="3" t="s">
+      <c r="DR9" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="DR9" s="3" t="s">
+      <c r="DS9" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="DS9" s="3" t="s">
+      <c r="DT9" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="DT9" s="3" t="s">
+      <c r="DU9" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="DU9" s="3" t="s">
+      <c r="DV9" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="DV9" s="3" t="s">
+      <c r="DW9" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="DW9" s="3" t="s">
+      <c r="DX9" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="DX9" s="3" t="s">
+      <c r="DY9" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="DY9" s="3" t="s">
+      <c r="DZ9" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="DZ9" s="3" t="s">
+      <c r="EA9" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="EA9" s="3" t="s">
+      <c r="EB9" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="EB9" s="3" t="s">
+      <c r="EC9" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="EC9" s="3" t="s">
+      <c r="ED9" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="ED9" s="3" t="s">
-        <v>883</v>
-      </c>
       <c r="EE9" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="EF9" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="EF9" s="3" t="s">
+      <c r="EG9" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="EG9" s="3" t="s">
+      <c r="EH9" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="EH9" s="3" t="s">
+      <c r="EI9" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="EI9" s="3" t="s">
+      <c r="EJ9" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="EJ9" s="3" t="s">
+      <c r="EK9" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="EK9" s="3" t="s">
+      <c r="EL9" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="EL9" s="3" t="s">
+      <c r="EM9" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="EM9" s="3" t="s">
+      <c r="EN9" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="EN9" s="3" t="s">
+      <c r="EO9" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="EO9" s="3" t="s">
+      <c r="EP9" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="EP9" s="3" t="s">
+      <c r="EQ9" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="EQ9" s="3" t="s">
+      <c r="ER9" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="ER9" s="3" t="s">
+      <c r="ES9" s="3" t="s">
         <v>1130</v>
-      </c>
-      <c r="ES9" s="3" t="s">
-        <v>1131</v>
       </c>
       <c r="ET9" s="3"/>
     </row>
@@ -9061,445 +9061,445 @@
         <v>391</v>
       </c>
       <c r="D10" t="s">
+        <v>883</v>
+      </c>
+      <c r="E10" t="s">
         <v>884</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>885</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>886</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>887</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>888</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>889</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>890</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>891</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>892</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>893</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>894</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>895</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>896</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>897</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>898</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>899</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>900</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>901</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>902</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>903</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>904</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>905</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>906</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>907</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>908</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>909</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>910</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>911</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>912</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>913</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>914</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>915</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>916</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>917</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>918</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>919</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AO10" t="s">
         <v>920</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>921</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
         <v>922</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AR10" t="s">
         <v>923</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AS10" t="s">
         <v>924</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AT10" t="s">
         <v>925</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AU10" t="s">
         <v>926</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AV10" t="s">
         <v>927</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AW10" t="s">
         <v>928</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AX10" t="s">
         <v>929</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>930</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>931</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
         <v>932</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BB10" t="s">
         <v>933</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>934</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BD10" t="s">
         <v>935</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BE10" t="s">
         <v>936</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BF10" t="s">
         <v>937</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BG10" t="s">
         <v>938</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BH10" t="s">
         <v>939</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BI10" t="s">
         <v>940</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BJ10" t="s">
         <v>941</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BK10" t="s">
         <v>942</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BL10" t="s">
         <v>943</v>
       </c>
-      <c r="BL10" t="s">
+      <c r="BM10" t="s">
         <v>944</v>
       </c>
-      <c r="BM10" t="s">
+      <c r="BN10" t="s">
         <v>945</v>
       </c>
-      <c r="BN10" t="s">
+      <c r="BO10" t="s">
         <v>946</v>
       </c>
-      <c r="BO10" t="s">
+      <c r="BP10" t="s">
         <v>947</v>
       </c>
-      <c r="BP10" t="s">
+      <c r="BQ10" t="s">
         <v>948</v>
       </c>
-      <c r="BQ10" t="s">
+      <c r="BR10" t="s">
         <v>949</v>
       </c>
-      <c r="BR10" t="s">
+      <c r="BS10" t="s">
         <v>950</v>
       </c>
-      <c r="BS10" t="s">
+      <c r="BT10" t="s">
         <v>951</v>
       </c>
-      <c r="BT10" t="s">
+      <c r="BU10" t="s">
         <v>952</v>
       </c>
-      <c r="BU10" t="s">
+      <c r="BV10" t="s">
         <v>953</v>
       </c>
-      <c r="BV10" t="s">
+      <c r="BW10" t="s">
         <v>954</v>
       </c>
-      <c r="BW10" t="s">
+      <c r="BX10" t="s">
         <v>955</v>
       </c>
-      <c r="BX10" t="s">
+      <c r="BY10" t="s">
         <v>956</v>
       </c>
-      <c r="BY10" t="s">
+      <c r="BZ10" t="s">
         <v>957</v>
       </c>
-      <c r="BZ10" t="s">
+      <c r="CA10" t="s">
         <v>958</v>
       </c>
-      <c r="CA10" t="s">
+      <c r="CB10" t="s">
         <v>959</v>
       </c>
-      <c r="CB10" t="s">
+      <c r="CC10" t="s">
         <v>960</v>
       </c>
-      <c r="CC10" t="s">
+      <c r="CD10" t="s">
         <v>961</v>
       </c>
-      <c r="CD10" t="s">
+      <c r="CE10" t="s">
         <v>962</v>
       </c>
-      <c r="CE10" t="s">
+      <c r="CF10" t="s">
         <v>963</v>
       </c>
-      <c r="CF10" t="s">
+      <c r="CG10" t="s">
         <v>964</v>
       </c>
-      <c r="CG10" t="s">
+      <c r="CH10" t="s">
         <v>965</v>
       </c>
-      <c r="CH10" t="s">
+      <c r="CI10" t="s">
         <v>966</v>
       </c>
-      <c r="CI10" t="s">
+      <c r="CJ10" t="s">
         <v>967</v>
       </c>
-      <c r="CJ10" t="s">
+      <c r="CK10" t="s">
         <v>968</v>
       </c>
-      <c r="CK10" t="s">
+      <c r="CL10" t="s">
         <v>969</v>
       </c>
-      <c r="CL10" t="s">
+      <c r="CM10" t="s">
         <v>970</v>
       </c>
-      <c r="CM10" t="s">
+      <c r="CN10" t="s">
         <v>971</v>
       </c>
-      <c r="CN10" t="s">
+      <c r="CO10" t="s">
         <v>972</v>
       </c>
-      <c r="CO10" t="s">
+      <c r="CP10" t="s">
         <v>973</v>
       </c>
-      <c r="CP10" t="s">
+      <c r="CQ10" t="s">
         <v>974</v>
       </c>
-      <c r="CQ10" t="s">
+      <c r="CR10" t="s">
         <v>975</v>
       </c>
-      <c r="CR10" t="s">
+      <c r="CS10" t="s">
         <v>976</v>
       </c>
-      <c r="CS10" t="s">
+      <c r="CT10" t="s">
         <v>977</v>
       </c>
-      <c r="CT10" t="s">
+      <c r="CU10" t="s">
         <v>978</v>
       </c>
-      <c r="CU10" t="s">
+      <c r="CV10" t="s">
         <v>979</v>
       </c>
-      <c r="CV10" t="s">
+      <c r="CW10" t="s">
         <v>980</v>
       </c>
-      <c r="CW10" t="s">
+      <c r="CX10" t="s">
         <v>981</v>
       </c>
-      <c r="CX10" t="s">
+      <c r="CY10" t="s">
         <v>982</v>
       </c>
-      <c r="CY10" t="s">
+      <c r="CZ10" t="s">
         <v>983</v>
       </c>
-      <c r="CZ10" t="s">
+      <c r="DA10" t="s">
         <v>984</v>
       </c>
-      <c r="DA10" t="s">
+      <c r="DB10" t="s">
         <v>985</v>
       </c>
-      <c r="DB10" t="s">
+      <c r="DC10" t="s">
         <v>986</v>
       </c>
-      <c r="DC10" t="s">
+      <c r="DD10" t="s">
         <v>987</v>
       </c>
-      <c r="DD10" t="s">
+      <c r="DE10" t="s">
         <v>988</v>
       </c>
-      <c r="DE10" t="s">
+      <c r="DF10" t="s">
         <v>989</v>
       </c>
-      <c r="DF10" t="s">
+      <c r="DG10" t="s">
         <v>990</v>
       </c>
-      <c r="DG10" t="s">
+      <c r="DH10" t="s">
         <v>991</v>
       </c>
-      <c r="DH10" t="s">
+      <c r="DI10" t="s">
         <v>992</v>
       </c>
-      <c r="DI10" t="s">
+      <c r="DJ10" t="s">
         <v>993</v>
       </c>
-      <c r="DJ10" t="s">
+      <c r="DK10" t="s">
         <v>994</v>
       </c>
-      <c r="DK10" t="s">
+      <c r="DL10" t="s">
         <v>995</v>
       </c>
-      <c r="DL10" t="s">
+      <c r="DM10" t="s">
         <v>996</v>
       </c>
-      <c r="DM10" t="s">
+      <c r="DN10" t="s">
         <v>997</v>
       </c>
-      <c r="DN10" t="s">
+      <c r="DO10" t="s">
         <v>998</v>
       </c>
-      <c r="DO10" t="s">
+      <c r="DP10" t="s">
         <v>999</v>
       </c>
-      <c r="DP10" t="s">
+      <c r="DQ10" t="s">
         <v>1000</v>
       </c>
-      <c r="DQ10" t="s">
+      <c r="DR10" t="s">
         <v>1001</v>
       </c>
-      <c r="DR10" t="s">
+      <c r="DS10" t="s">
         <v>1002</v>
       </c>
-      <c r="DS10" t="s">
+      <c r="DT10" t="s">
         <v>1003</v>
       </c>
-      <c r="DT10" t="s">
+      <c r="DU10" t="s">
         <v>1004</v>
       </c>
-      <c r="DU10" t="s">
+      <c r="DV10" t="s">
         <v>1005</v>
       </c>
-      <c r="DV10" t="s">
+      <c r="DW10" t="s">
         <v>1006</v>
       </c>
-      <c r="DW10" t="s">
+      <c r="DX10" t="s">
         <v>1007</v>
       </c>
-      <c r="DX10" t="s">
+      <c r="DY10" t="s">
         <v>1008</v>
       </c>
-      <c r="DY10" t="s">
+      <c r="DZ10" t="s">
         <v>1009</v>
       </c>
-      <c r="DZ10" t="s">
+      <c r="EA10" t="s">
         <v>1010</v>
       </c>
-      <c r="EA10" t="s">
+      <c r="EB10" t="s">
         <v>1011</v>
       </c>
-      <c r="EB10" t="s">
+      <c r="EC10" t="s">
         <v>1012</v>
       </c>
-      <c r="EC10" t="s">
+      <c r="ED10" t="s">
         <v>1013</v>
       </c>
-      <c r="ED10" t="s">
+      <c r="EE10" t="s">
         <v>1014</v>
       </c>
-      <c r="EE10" t="s">
-        <v>1015</v>
-      </c>
       <c r="EF10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="EG10" t="s">
         <v>1132</v>
       </c>
-      <c r="EG10" t="s">
+      <c r="EH10" t="s">
         <v>1133</v>
       </c>
-      <c r="EH10" t="s">
+      <c r="EI10" t="s">
         <v>1134</v>
       </c>
-      <c r="EI10" t="s">
+      <c r="EJ10" t="s">
         <v>1135</v>
       </c>
-      <c r="EJ10" t="s">
+      <c r="EK10" t="s">
         <v>1136</v>
       </c>
-      <c r="EK10" t="s">
+      <c r="EL10" t="s">
         <v>1137</v>
       </c>
-      <c r="EL10" t="s">
+      <c r="EM10" t="s">
         <v>1138</v>
       </c>
-      <c r="EM10" t="s">
+      <c r="EN10" t="s">
         <v>1139</v>
       </c>
-      <c r="EN10" t="s">
+      <c r="EO10" t="s">
         <v>1140</v>
       </c>
-      <c r="EO10" t="s">
+      <c r="EP10" t="s">
         <v>1141</v>
       </c>
-      <c r="EP10" t="s">
+      <c r="EQ10" t="s">
         <v>1142</v>
       </c>
-      <c r="EQ10" t="s">
+      <c r="ER10" t="s">
         <v>1143</v>
       </c>
-      <c r="ER10" t="s">
+      <c r="ES10" t="s">
         <v>1144</v>
       </c>
-      <c r="ES10" t="s">
+      <c r="ET10" t="s">
         <v>1145</v>
-      </c>
-      <c r="ET10" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="11" spans="1:150" x14ac:dyDescent="0.4">
@@ -9513,73 +9513,73 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E11" t="s">
         <v>1147</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>1148</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>1149</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>1150</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>1151</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>1152</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>1153</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>1154</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>1155</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>1156</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>1157</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>1158</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>1159</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>1160</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>1161</v>
-      </c>
-      <c r="S11" t="s">
-        <v>1162</v>
       </c>
       <c r="T11" t="s">
         <v>9</v>
       </c>
       <c r="U11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="V11" t="s">
         <v>1163</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>1164</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>1165</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>1166</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>1167</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>1168</v>
       </c>
       <c r="AA11" t="s">
         <v>31</v>
@@ -9594,64 +9594,64 @@
         <v>30</v>
       </c>
       <c r="AE11" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AF11" t="s">
         <v>33</v>
       </c>
       <c r="AG11" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AH11" t="s">
         <v>36</v>
       </c>
       <c r="AI11" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AJ11" t="s">
         <v>39</v>
       </c>
       <c r="AK11" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AL11" t="s">
         <v>1172</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>1173</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
         <v>1174</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AO11" t="s">
         <v>1175</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AP11" t="s">
         <v>1176</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
         <v>1177</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AR11" t="s">
         <v>1178</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AS11" t="s">
         <v>1179</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
         <v>1180</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AU11" t="s">
         <v>1181</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AV11" t="s">
         <v>1182</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AW11" t="s">
         <v>1183</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>1184</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>1185</v>
       </c>
       <c r="AY11" t="s">
         <v>51</v>
@@ -9660,7 +9660,7 @@
         <v>57</v>
       </c>
       <c r="BA11" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="BB11" t="s">
         <v>53</v>
@@ -9669,7 +9669,7 @@
         <v>60</v>
       </c>
       <c r="BD11" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="BE11" t="s">
         <v>56</v>
@@ -9678,79 +9678,79 @@
         <v>63</v>
       </c>
       <c r="BG11" t="s">
+        <v>1187</v>
+      </c>
+      <c r="BH11" t="s">
         <v>1188</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BI11" t="s">
         <v>1189</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BJ11" t="s">
         <v>1190</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BK11" t="s">
         <v>1191</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="BL11" t="s">
         <v>1192</v>
       </c>
-      <c r="BL11" t="s">
+      <c r="BM11" t="s">
         <v>1193</v>
       </c>
-      <c r="BM11" t="s">
+      <c r="BN11" t="s">
         <v>1194</v>
       </c>
-      <c r="BN11" t="s">
+      <c r="BO11" t="s">
         <v>1195</v>
       </c>
-      <c r="BO11" t="s">
+      <c r="BP11" t="s">
         <v>1196</v>
       </c>
-      <c r="BP11" t="s">
+      <c r="BQ11" t="s">
         <v>1197</v>
       </c>
-      <c r="BQ11" t="s">
+      <c r="BR11" t="s">
         <v>1198</v>
       </c>
-      <c r="BR11" t="s">
+      <c r="BS11" t="s">
         <v>1199</v>
       </c>
-      <c r="BS11" t="s">
+      <c r="BT11" t="s">
         <v>1200</v>
       </c>
-      <c r="BT11" t="s">
+      <c r="BU11" t="s">
         <v>1201</v>
       </c>
-      <c r="BU11" t="s">
+      <c r="BV11" t="s">
         <v>1202</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>1203</v>
       </c>
       <c r="BW11" t="s">
         <v>80</v>
       </c>
       <c r="BX11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="BY11" t="s">
         <v>1204</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>1205</v>
       </c>
       <c r="BZ11" t="s">
         <v>83</v>
       </c>
       <c r="CA11" t="s">
+        <v>1205</v>
+      </c>
+      <c r="CB11" t="s">
         <v>1206</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>1207</v>
       </c>
       <c r="CC11" t="s">
         <v>86</v>
       </c>
       <c r="CD11" t="s">
+        <v>1207</v>
+      </c>
+      <c r="CE11" t="s">
         <v>1208</v>
-      </c>
-      <c r="CE11" t="s">
-        <v>1209</v>
       </c>
       <c r="CF11" t="s">
         <v>89</v>
@@ -9759,7 +9759,7 @@
         <v>84</v>
       </c>
       <c r="CH11" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="CI11" t="s">
         <v>92</v>
@@ -9768,7 +9768,7 @@
         <v>87</v>
       </c>
       <c r="CK11" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="CL11" t="s">
         <v>95</v>
@@ -9777,79 +9777,79 @@
         <v>90</v>
       </c>
       <c r="CN11" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="CO11" t="s">
         <v>98</v>
       </c>
       <c r="CP11" t="s">
+        <v>1212</v>
+      </c>
+      <c r="CQ11" t="s">
         <v>1213</v>
       </c>
-      <c r="CQ11" t="s">
+      <c r="CR11" t="s">
         <v>1214</v>
       </c>
-      <c r="CR11" t="s">
+      <c r="CS11" t="s">
         <v>1215</v>
       </c>
-      <c r="CS11" t="s">
+      <c r="CT11" t="s">
         <v>1216</v>
       </c>
-      <c r="CT11" t="s">
+      <c r="CU11" t="s">
         <v>1217</v>
       </c>
-      <c r="CU11" t="s">
+      <c r="CV11" t="s">
         <v>1218</v>
       </c>
-      <c r="CV11" t="s">
+      <c r="CW11" t="s">
         <v>1219</v>
       </c>
-      <c r="CW11" t="s">
+      <c r="CX11" t="s">
         <v>1220</v>
       </c>
-      <c r="CX11" t="s">
+      <c r="CY11" t="s">
         <v>1221</v>
       </c>
-      <c r="CY11" t="s">
+      <c r="CZ11" t="s">
         <v>1222</v>
-      </c>
-      <c r="CZ11" t="s">
-        <v>1223</v>
       </c>
       <c r="DA11" t="s">
         <v>111</v>
       </c>
       <c r="DB11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="DC11" t="s">
         <v>1224</v>
-      </c>
-      <c r="DC11" t="s">
-        <v>1225</v>
       </c>
       <c r="DD11" t="s">
         <v>114</v>
       </c>
       <c r="DE11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="DF11" t="s">
         <v>1226</v>
       </c>
-      <c r="DF11" t="s">
+      <c r="DG11" t="s">
         <v>1227</v>
       </c>
-      <c r="DG11" t="s">
+      <c r="DH11" t="s">
         <v>1228</v>
       </c>
-      <c r="DH11" t="s">
+      <c r="DI11" t="s">
         <v>1229</v>
       </c>
-      <c r="DI11" t="s">
+      <c r="DJ11" t="s">
         <v>1230</v>
       </c>
-      <c r="DJ11" t="s">
+      <c r="DK11" t="s">
         <v>1231</v>
       </c>
-      <c r="DK11" t="s">
+      <c r="DL11" t="s">
         <v>1232</v>
-      </c>
-      <c r="DL11" t="s">
-        <v>1233</v>
       </c>
       <c r="DM11" t="s">
         <v>128</v>
@@ -9858,7 +9858,7 @@
         <v>123</v>
       </c>
       <c r="DO11" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="DP11" t="s">
         <v>131</v>
@@ -9867,34 +9867,34 @@
         <v>126</v>
       </c>
       <c r="DR11" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="DS11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="DT11" t="s">
         <v>129</v>
       </c>
       <c r="DU11" t="s">
+        <v>1235</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="DX11" t="s">
         <v>1236</v>
       </c>
-      <c r="DV11" t="s">
-        <v>1031</v>
-      </c>
-      <c r="DW11" t="s">
-        <v>1021</v>
-      </c>
-      <c r="DX11" t="s">
+      <c r="DY11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EA11" t="s">
         <v>1237</v>
-      </c>
-      <c r="DY11" t="s">
-        <v>1034</v>
-      </c>
-      <c r="DZ11" t="s">
-        <v>1029</v>
-      </c>
-      <c r="EA11" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="12" spans="1:150" x14ac:dyDescent="0.4">
@@ -9911,49 +9911,49 @@
         <v>263</v>
       </c>
       <c r="E12" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F12" t="s">
         <v>1239</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>1240</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>1241</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>1242</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>1243</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>1244</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>1245</v>
       </c>
-      <c r="L12" t="s">
-        <v>1246</v>
-      </c>
       <c r="M12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="N12" t="s">
         <v>522</v>
       </c>
       <c r="O12" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="P12" t="s">
         <v>523</v>
       </c>
       <c r="Q12" t="s">
+        <v>1247</v>
+      </c>
+      <c r="R12" t="s">
         <v>1248</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>1249</v>
-      </c>
-      <c r="S12" t="s">
-        <v>1250</v>
       </c>
       <c r="T12" t="s">
         <v>526</v>
@@ -9962,187 +9962,187 @@
         <v>531</v>
       </c>
       <c r="V12" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="W12" t="s">
         <v>532</v>
       </c>
       <c r="X12" t="s">
+        <v>1251</v>
+      </c>
+      <c r="Y12" t="s">
         <v>1252</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>1253</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>1254</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>1255</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>1256</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>1257</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>1258</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>1259</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>1260</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>1261</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>1262</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>1263</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>1264</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>1265</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>1266</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
         <v>1267</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AO12" t="s">
         <v>1268</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
         <v>1269</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
         <v>1270</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AR12" t="s">
         <v>1271</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AS12" t="s">
         <v>1272</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
         <v>1273</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AU12" t="s">
         <v>1274</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AV12" t="s">
         <v>1275</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AW12" t="s">
         <v>1276</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AX12" t="s">
         <v>1277</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>1278</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
         <v>1279</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BA12" t="s">
         <v>1280</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BB12" t="s">
         <v>1281</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BC12" t="s">
         <v>1282</v>
       </c>
-      <c r="BC12" t="s">
+      <c r="BD12" t="s">
         <v>1283</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BE12" t="s">
         <v>1284</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BF12" t="s">
         <v>1285</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BG12" t="s">
         <v>1286</v>
       </c>
-      <c r="BG12" t="s">
+      <c r="BH12" t="s">
         <v>1287</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BI12" t="s">
         <v>1288</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BJ12" t="s">
         <v>1289</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BK12" t="s">
         <v>1290</v>
       </c>
-      <c r="BK12" t="s">
+      <c r="BL12" t="s">
         <v>1291</v>
       </c>
-      <c r="BL12" t="s">
+      <c r="BM12" t="s">
         <v>1292</v>
       </c>
-      <c r="BM12" t="s">
+      <c r="BN12" t="s">
         <v>1293</v>
       </c>
-      <c r="BN12" t="s">
+      <c r="BO12" t="s">
         <v>1294</v>
       </c>
-      <c r="BO12" t="s">
+      <c r="BP12" t="s">
         <v>1295</v>
       </c>
-      <c r="BP12" t="s">
+      <c r="BQ12" t="s">
         <v>1296</v>
       </c>
-      <c r="BQ12" t="s">
+      <c r="BR12" t="s">
         <v>1297</v>
       </c>
-      <c r="BR12" t="s">
+      <c r="BS12" t="s">
         <v>1298</v>
       </c>
-      <c r="BS12" t="s">
+      <c r="BT12" t="s">
         <v>1299</v>
       </c>
-      <c r="BT12" t="s">
+      <c r="BU12" t="s">
         <v>1300</v>
       </c>
-      <c r="BU12" t="s">
+      <c r="BV12" t="s">
+        <v>1197</v>
+      </c>
+      <c r="BW12" t="s">
         <v>1301</v>
       </c>
-      <c r="BV12" t="s">
-        <v>1198</v>
-      </c>
-      <c r="BW12" t="s">
+      <c r="BX12" t="s">
         <v>1302</v>
       </c>
-      <c r="BX12" t="s">
+      <c r="BY12" t="s">
+        <v>1200</v>
+      </c>
+      <c r="BZ12" t="s">
         <v>1303</v>
       </c>
-      <c r="BY12" t="s">
-        <v>1201</v>
-      </c>
-      <c r="BZ12" t="s">
+      <c r="CA12" t="s">
         <v>1304</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>1305</v>
       </c>
       <c r="CB12" t="s">
         <v>80</v>
       </c>
       <c r="CC12" t="s">
+        <v>1305</v>
+      </c>
+      <c r="CD12" t="s">
         <v>1306</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>1307</v>
       </c>
       <c r="CE12" t="s">
         <v>83</v>
@@ -10151,7 +10151,7 @@
         <v>606</v>
       </c>
       <c r="CG12" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="CH12" t="s">
         <v>86</v>
@@ -10160,13 +10160,13 @@
         <v>609</v>
       </c>
       <c r="CJ12" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="CK12" t="s">
         <v>89</v>
       </c>
       <c r="CL12" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="CM12" t="s">
         <v>85</v>
@@ -10175,7 +10175,7 @@
         <v>92</v>
       </c>
       <c r="CO12" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="CP12" t="s">
         <v>88</v>
@@ -10184,61 +10184,61 @@
         <v>95</v>
       </c>
       <c r="CR12" t="s">
+        <v>1311</v>
+      </c>
+      <c r="CS12" t="s">
         <v>1312</v>
       </c>
-      <c r="CS12" t="s">
+      <c r="CT12" t="s">
         <v>1313</v>
       </c>
-      <c r="CT12" t="s">
+      <c r="CU12" t="s">
         <v>1314</v>
       </c>
-      <c r="CU12" t="s">
+      <c r="CV12" t="s">
         <v>1315</v>
       </c>
-      <c r="CV12" t="s">
+      <c r="CW12" t="s">
         <v>1316</v>
-      </c>
-      <c r="CW12" t="s">
-        <v>1317</v>
       </c>
       <c r="CX12" t="s">
         <v>97</v>
       </c>
       <c r="CY12" t="s">
+        <v>1317</v>
+      </c>
+      <c r="CZ12" t="s">
         <v>1318</v>
-      </c>
-      <c r="CZ12" t="s">
-        <v>1319</v>
       </c>
       <c r="DA12" t="s">
         <v>100</v>
       </c>
       <c r="DB12" t="s">
+        <v>1319</v>
+      </c>
+      <c r="DC12" t="s">
         <v>1320</v>
-      </c>
-      <c r="DC12" t="s">
-        <v>1321</v>
       </c>
       <c r="DD12" t="s">
         <v>103</v>
       </c>
       <c r="DE12" t="s">
+        <v>1321</v>
+      </c>
+      <c r="DF12" t="s">
         <v>1322</v>
-      </c>
-      <c r="DF12" t="s">
-        <v>1323</v>
       </c>
       <c r="DG12" t="s">
         <v>106</v>
       </c>
       <c r="DH12" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="DI12" t="s">
         <v>113</v>
       </c>
       <c r="DJ12" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="DK12" t="s">
         <v>115</v>
@@ -10247,7 +10247,7 @@
         <v>116</v>
       </c>
       <c r="DM12" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="DN12" t="s">
         <v>118</v>
@@ -10256,85 +10256,85 @@
         <v>119</v>
       </c>
       <c r="DP12" t="s">
+        <v>1326</v>
+      </c>
+      <c r="DQ12" t="s">
         <v>1327</v>
       </c>
-      <c r="DQ12" t="s">
+      <c r="DR12" t="s">
         <v>1328</v>
       </c>
-      <c r="DR12" t="s">
+      <c r="DS12" t="s">
         <v>1329</v>
       </c>
-      <c r="DS12" t="s">
+      <c r="DT12" t="s">
         <v>1330</v>
       </c>
-      <c r="DT12" t="s">
+      <c r="DU12" t="s">
         <v>1331</v>
       </c>
-      <c r="DU12" t="s">
+      <c r="DV12" t="s">
         <v>1332</v>
       </c>
-      <c r="DV12" t="s">
+      <c r="DW12" t="s">
         <v>1333</v>
-      </c>
-      <c r="DW12" t="s">
-        <v>1334</v>
       </c>
       <c r="DX12" t="s">
         <v>127</v>
       </c>
       <c r="DY12" t="s">
+        <v>1334</v>
+      </c>
+      <c r="DZ12" t="s">
         <v>1335</v>
       </c>
-      <c r="DZ12" t="s">
+      <c r="EA12" t="s">
         <v>1336</v>
       </c>
-      <c r="EA12" t="s">
+      <c r="EB12" t="s">
         <v>1337</v>
       </c>
-      <c r="EB12" t="s">
+      <c r="EC12" t="s">
         <v>1338</v>
       </c>
-      <c r="EC12" t="s">
+      <c r="ED12" t="s">
         <v>1339</v>
       </c>
-      <c r="ED12" t="s">
+      <c r="EE12" t="s">
         <v>1340</v>
       </c>
-      <c r="EE12" t="s">
+      <c r="EF12" t="s">
         <v>1341</v>
       </c>
-      <c r="EF12" t="s">
+      <c r="EG12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="EH12" t="s">
         <v>1342</v>
       </c>
-      <c r="EG12" t="s">
-        <v>1031</v>
-      </c>
-      <c r="EH12" t="s">
+      <c r="EI12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="EJ12" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EK12" t="s">
         <v>1343</v>
       </c>
-      <c r="EI12" t="s">
-        <v>1033</v>
-      </c>
-      <c r="EJ12" t="s">
-        <v>1034</v>
-      </c>
-      <c r="EK12" t="s">
+      <c r="EL12" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EM12" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EN12" t="s">
         <v>1344</v>
       </c>
-      <c r="EL12" t="s">
-        <v>1036</v>
-      </c>
-      <c r="EM12" t="s">
-        <v>1037</v>
-      </c>
-      <c r="EN12" t="s">
-        <v>1345</v>
-      </c>
       <c r="EO12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="EP12" t="s">
         <v>1039</v>
-      </c>
-      <c r="EP12" t="s">
-        <v>1040</v>
       </c>
     </row>
   </sheetData>
